--- a/elmentary_rankings_zipcode.xlsx
+++ b/elmentary_rankings_zipcode.xlsx
@@ -19,7 +19,7 @@
     <t>stars</t>
   </si>
   <si>
-    <t>zipcode</t>
+    <t>Zip Code</t>
   </si>
   <si>
     <t>78702</t>
